--- a/Inshorts/Test Scenario_Inshorts.xlsx
+++ b/Inshorts/Test Scenario_Inshorts.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Test</t>
+    <t>Testf</t>
   </si>
 </sst>
 </file>
@@ -342,7 +342,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inshorts/Test Scenario_Inshorts.xlsx
+++ b/Inshorts/Test Scenario_Inshorts.xlsx
@@ -19,16 +19,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Testf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+  <si>
+    <t>Installation Testing</t>
+  </si>
+  <si>
+    <t>Sr no</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Open Google Play store search for Inshorts application, Download &amp; Install application.</t>
+  </si>
+  <si>
+    <t>Tap on accept terms and the Installation Process would start.</t>
+  </si>
+  <si>
+    <t>After the Installation is completed the Inshort application icon will be displayed on your phone.</t>
+  </si>
+  <si>
+    <t>Check if application is loading Properly or not.</t>
+  </si>
+  <si>
+    <t>Try to Uninstall the app, check if the app gets Uninstalled properly and the necessary space should be free up.</t>
+  </si>
+  <si>
+    <t>While installing the app should check whether necessary space is available on the device if not should provide a message  "Insufficient Space".</t>
+  </si>
+  <si>
+    <t>Interuption Testing</t>
+  </si>
+  <si>
+    <t>While using the app you get a Phone Call how the app responds.</t>
+  </si>
+  <si>
+    <t>If you receive a SMS/ Message while using the app.</t>
+  </si>
+  <si>
+    <t>If Battery is Low in that case how app responds.</t>
+  </si>
+  <si>
+    <t>While the app is in use you switch to another app and again caome back to Inshorts app does it show the same page which you were using.</t>
+  </si>
+  <si>
+    <t>If we Press the Screen lock button and the again unlock the screen does the app work properly</t>
+  </si>
+  <si>
+    <t>If we are charging our phone while using the app does the app work Properly.</t>
+  </si>
+  <si>
+    <t>Functional Testing</t>
+  </si>
+  <si>
+    <t>If ther e is no Internet Connection does the application crash or does it show a message that No Internet Connection.</t>
+  </si>
+  <si>
+    <t>Tap on the Inshort app the app should open and provide you with option to select the language English /Hindi</t>
+  </si>
+  <si>
+    <t>As per the selection all news will appear in the selected language.</t>
+  </si>
+  <si>
+    <t>Tap the Search icon on the top left corner of the screen it should show an option to display news based on top news. Trending News, Bookmarked news, Unread news.</t>
+  </si>
+  <si>
+    <t>Swipe the screen from left to right it will show you with the different search options, Settings Options</t>
+  </si>
+  <si>
+    <t>In the settings option tap on the connect with facebook option to connect your app with the facebook account.</t>
+  </si>
+  <si>
+    <t>Tap on the Sync Phone Contacts in the setting to sync your Phone contacts with the app so that you can share the news to your contacts.</t>
+  </si>
+  <si>
+    <t>Tap on the Language option to change the Language.</t>
+  </si>
+  <si>
+    <t>Tap on the Notification option to switch on or off the notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap on th HD Images option to show image in HD </t>
+  </si>
+  <si>
+    <t>Tap on the Night Mode option to switch the app in night mode.</t>
+  </si>
+  <si>
+    <t>Tap on the Add free News option so that you can use the app without the adds.</t>
+  </si>
+  <si>
+    <t>Tap on the Invite you friends option to share the Insort App with you facebook friends.</t>
+  </si>
+  <si>
+    <t>Tap on the Rate this app option to rate the app on the Playstore.</t>
+  </si>
+  <si>
+    <t>Tap On the Feedback option to provide feedback on the App.</t>
+  </si>
+  <si>
+    <t>Tap on the Terms &amp; Conditions option to go through the terms &amp; condition of the app.</t>
+  </si>
+  <si>
+    <t>Tap on the Like icon at the bottom to like the news</t>
+  </si>
+  <si>
+    <t>Tap on the Share icon at the bottom to share the news</t>
+  </si>
+  <si>
+    <t>Tap on the bookmark icon to bookmark the news</t>
+  </si>
+  <si>
+    <t>App should provide more Language options other than just English &amp; Marathi</t>
+  </si>
+  <si>
+    <t>For new user it would be difficult to find where settings option there should be help button which will help user understan app better</t>
+  </si>
+  <si>
+    <t>App sShould allow user to read news is Landscape Mode(When Phone is Tilted)</t>
+  </si>
+  <si>
+    <t>Enhancement</t>
+  </si>
+  <si>
+    <t>There should be option to select the Contents in the news or Copy a content in the news</t>
+  </si>
+  <si>
+    <t>Defect</t>
+  </si>
+  <si>
+    <t>App doesn't work on Blackberry device.</t>
+  </si>
+  <si>
+    <t>Test Scenario For Inshorts Application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,13 +165,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,8 +222,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,20 +517,1093 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="4"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B36:T36"/>
+    <mergeCell ref="B37:T37"/>
+    <mergeCell ref="B38:T38"/>
+    <mergeCell ref="B30:T30"/>
+    <mergeCell ref="B32:T32"/>
+    <mergeCell ref="B33:T33"/>
+    <mergeCell ref="B34:T34"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="B7:T7"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="B8:T8"/>
+    <mergeCell ref="B10:T10"/>
+    <mergeCell ref="B9:T9"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B6:T6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B14:T14"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B19:T19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B20:T20"/>
+    <mergeCell ref="B24:T24"/>
+    <mergeCell ref="B25:T25"/>
+    <mergeCell ref="B26:T26"/>
+    <mergeCell ref="B27:T27"/>
+    <mergeCell ref="B28:T28"/>
+    <mergeCell ref="B29:T29"/>
+    <mergeCell ref="B31:T31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>